--- a/data/news/latest_news.xlsx
+++ b/data/news/latest_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yang/Documents/GitHub/CSS-Laboratory.github.io/data/news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1223FF3D-0F42-2B42-9F55-3608B7AE130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051947FA-C71B-364D-B1D1-CDC0C8CBDCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28200" yWindow="2820" windowWidth="27900" windowHeight="16860" xr2:uid="{D316AEC9-8208-DE43-A237-BECFC59EC8C4}"/>
   </bookViews>
@@ -60,22 +60,22 @@
     <t>April 10, 2025</t>
   </si>
   <si>
-    <t>Dr. Kunhao Yang Joins SIT College of Engineering, Leads New CSS Lab</t>
-  </si>
-  <si>
     <t>CSS Lab Welcomes Purr-fect New Team Member: Mimiku Ruby, Academic Support Cat!</t>
   </si>
   <si>
     <t>The Computational Social Science Lab is delighted to introduce its newest (and fluffiest) team member, Ms. Mimiku Ruby! Specializing in stress reduction, keyboard warming, and advanced napping techniques, Mimiku Ruby will serve as our official Academic Support Cat. Stop by to say hello and receive your daily dose of purr-spective!</t>
   </si>
   <si>
-    <t>We are thrilled to announce that Dr. Kunhao Yang has joined Shibaura Institute of Technology as an Assistant Professor in the College of Engineering and as the director of the Computational Social Science (CSS) Laboratory. Dr. Yang will be spearheading research at the intersection of social science and data science, and will also be teaching new courses exploring these dynamic fields.</t>
-  </si>
-  <si>
     <t>members.html#faculty-grid</t>
   </si>
   <si>
     <t>members.html#others-grid</t>
+  </si>
+  <si>
+    <t>Dr. Kunhao Yang Joined SIT College of Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr. Kunhao Yang has joined Shibaura Institute of Technology as an Assistant Professor in the College of Engineering and as the director of the Computational Social Science (CSS) Laboratory. Dr. Yang will be spearheading research at the intersection of social science and data science, and will also be teaching new courses exploring these dynamic fields.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,27 +499,27 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
